--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2005609.116586094</v>
+        <v>2007932.788399961</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404855</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>13.00576294050472</v>
+      </c>
+      <c r="T2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>13.00576294050475</v>
       </c>
       <c r="U2" t="n">
         <v>53.51252900994975</v>
@@ -750,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.38724422570588</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.170977004479167</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>53.51252900994975</v>
@@ -859,10 +861,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.170977004479181</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>185.0333587736945</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>241.0142888776591</v>
@@ -975,28 +977,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>16.09920764631581</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>91.17901329107384</v>
       </c>
     </row>
     <row r="7">
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>175.0426595591497</v>
+        <v>85.57966959339331</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1151,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1212,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>97.41177638867039</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -1233,7 +1235,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,7 +1262,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1275,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1430,10 +1432,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,22 +1451,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -1497,16 +1499,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>147.2379120664689</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1582,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1625,10 +1627,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>31.60815104066432</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1828,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1865,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,31 +1888,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V17" t="n">
-        <v>90.38893773807641</v>
-      </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1971,25 +1973,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>3.833957768458675</v>
+        <v>194.308466782877</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2135,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>120.1832748619387</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -2181,7 +2183,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>123.888655019309</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2223,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2321,14 +2323,14 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>23.81301614990497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>241.0142888776591</v>
@@ -2400,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2412,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>16.74104455006236</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -2454,13 +2456,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>31.60815104066432</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2494,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>37.10634673358876</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2515,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,26 +2554,26 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
@@ -2597,22 +2599,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>121.8430658505937</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2649,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>55.06798290756629</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,7 +2690,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2697,7 +2699,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,25 +2797,25 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>230.8744955960827</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2871,25 +2873,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>19.00517942505802</v>
+        <v>109.2410531244296</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2916,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2959,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,13 +2970,13 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3117,16 +3119,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>19.86352725738845</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>25.62815669894475</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3278,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>19.7279353865638</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,22 +3310,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3345,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3354,19 +3356,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,22 +3395,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>19.98136279963896</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3427,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3545,10 +3547,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -3557,19 +3559,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>102.3382270926889</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3630,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>35.40726547353833</v>
+        <v>19.04632434133412</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3661,61 +3663,61 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="E41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3791,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>123.8814522403791</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>167.2936308377146</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4019,25 +4021,25 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>141.810675994094</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>123.3342443606757</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4107,10 +4109,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4156,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4174,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>39.82778746869524</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4331,16 +4333,16 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064623</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>110.2358097604965</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M2" t="n">
-        <v>161.0727123199487</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="N2" t="n">
-        <v>161.0727123199487</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
         <v>161.0727123199487</v>
@@ -4352,10 +4354,10 @@
         <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>159.9970564337892</v>
+        <v>200.9129817564609</v>
       </c>
       <c r="T2" t="n">
         <v>146.859922150451</v>
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.1412541856014</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="C3" t="n">
-        <v>113.1412541856014</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="D3" t="n">
-        <v>113.1412541856014</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="E3" t="n">
-        <v>113.1412541856014</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="F3" t="n">
-        <v>113.1412541856014</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="G3" t="n">
-        <v>59.08819457959154</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="H3" t="n">
         <v>5.035134973581694</v>
@@ -4410,16 +4412,16 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="M3" t="n">
         <v>57.25840604064623</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>110.2358097604965</v>
-      </c>
-      <c r="M3" t="n">
-        <v>110.2358097604965</v>
-      </c>
-      <c r="N3" t="n">
-        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
         <v>161.0727123199487</v>
@@ -4431,28 +4433,28 @@
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>167.1943137916113</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>167.1943137916113</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>167.1943137916113</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>167.1943137916113</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>167.1943137916113</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="W3" t="n">
-        <v>167.1943137916113</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="X3" t="n">
-        <v>167.1943137916113</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="Y3" t="n">
-        <v>167.1943137916113</v>
+        <v>59.08819457959154</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="C4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="D4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="E4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="F4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="G4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="H4" t="n">
-        <v>134.8815577205762</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="I4" t="n">
         <v>80.82849811456629</v>
@@ -4507,31 +4509,31 @@
         <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="V4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="W4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="X4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C5" t="n">
-        <v>233.7108255783361</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D5" t="n">
-        <v>233.7108255783361</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>233.7108255783361</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
         <v>46.80844297864461</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y5" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>694.6722890434539</v>
+        <v>602.5722756181267</v>
       </c>
       <c r="C6" t="n">
-        <v>694.6722890434539</v>
+        <v>428.1192463369997</v>
       </c>
       <c r="D6" t="n">
-        <v>545.7378793822027</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="E6" t="n">
-        <v>386.5004243767472</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F6" t="n">
-        <v>239.9658664036321</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4689,7 +4691,7 @@
         <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>770.7876126381948</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4768,7 +4770,7 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C8" t="n">
-        <v>710.516763498309</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D8" t="n">
-        <v>467.067986854209</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E8" t="n">
-        <v>223.6192102101089</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>247.340362388537</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>655.0361258579891</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C9" t="n">
-        <v>480.5830965768621</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D9" t="n">
-        <v>480.5830965768621</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>321.3456415714066</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>222.9499078454769</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4908,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X9" t="n">
-        <v>655.0361258579891</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y9" t="n">
-        <v>655.0361258579891</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D11" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G11" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5065,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V11" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W11" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X11" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y11" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>110.334904905842</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C12" t="n">
-        <v>110.334904905842</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D12" t="n">
-        <v>110.334904905842</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E12" t="n">
-        <v>110.334904905842</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F12" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G12" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
         <v>110.334904905842</v>
@@ -5127,13 +5129,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P12" t="n">
         <v>894.6625969973069</v>
@@ -5145,25 +5147,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V12" t="n">
-        <v>110.334904905842</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W12" t="n">
-        <v>110.334904905842</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X12" t="n">
-        <v>110.334904905842</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y12" t="n">
-        <v>110.334904905842</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
         <v>41.77557929797318</v>
@@ -5230,19 +5232,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5255,25 +5257,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5364,43 +5366,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N15" t="n">
         <v>613.2059550252818</v>
       </c>
-      <c r="N15" t="n">
-        <v>656.0584510084244</v>
-      </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>227.1326433157456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>227.1326433157456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
         <v>41.77557929797318</v>
@@ -5476,10 +5478,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5601,16 +5603,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5621,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>431.4643392632165</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>431.4643392632165</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="19">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>233.7108255783361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y20" t="n">
-        <v>233.7108255783361</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>361.6807332628614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C21" t="n">
-        <v>361.6807332628614</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D21" t="n">
-        <v>361.6807332628614</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E21" t="n">
-        <v>361.6807332628614</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F21" t="n">
-        <v>361.6807332628614</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G21" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>737.7475704884623</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>737.7475704884623</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>737.7475704884623</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>737.7475704884623</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>737.7475704884623</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X21" t="n">
-        <v>529.8960702829295</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y21" t="n">
-        <v>529.8960702829295</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>929.9119884758385</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6075,13 +6077,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>947.1470095004722</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>744.9604148592382</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>516.7367965956273</v>
       </c>
       <c r="V24" t="n">
-        <v>227.1326433157456</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="W24" t="n">
-        <v>227.1326433157456</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>281.5846883638847</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>82.32787816303323</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>812.6742080953335</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>812.6742080953335</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V26" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>189.028636514577</v>
+        <v>142.3549469997013</v>
       </c>
       <c r="C27" t="n">
-        <v>189.028636514577</v>
+        <v>142.3549469997013</v>
       </c>
       <c r="D27" t="n">
-        <v>189.028636514577</v>
+        <v>142.3549469997013</v>
       </c>
       <c r="E27" t="n">
-        <v>189.028636514577</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>189.028636514577</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>189.028636514577</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>75.65950092215631</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,46 +6311,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>432.4774131586771</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V27" t="n">
-        <v>432.4774131586771</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W27" t="n">
-        <v>189.028636514577</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X27" t="n">
-        <v>189.028636514577</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y27" t="n">
-        <v>189.028636514577</v>
+        <v>310.5702840197694</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6443,22 +6445,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D29" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E29" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F29" t="n">
-        <v>233.7108255783361</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>345.004439675971</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="C30" t="n">
-        <v>345.004439675971</v>
+        <v>480.5830965768621</v>
       </c>
       <c r="D30" t="n">
-        <v>345.004439675971</v>
+        <v>480.5830965768621</v>
       </c>
       <c r="E30" t="n">
-        <v>185.7669846705155</v>
+        <v>480.5830965768621</v>
       </c>
       <c r="F30" t="n">
-        <v>39.23242669740048</v>
+        <v>334.048538603747</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6546,10 +6548,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
         <v>712.019119383956</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>345.004439675971</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X30" t="n">
-        <v>345.004439675971</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y30" t="n">
-        <v>345.004439675971</v>
+        <v>655.0361258579891</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6740,10 +6742,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>660.701031422288</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="C33" t="n">
-        <v>486.248002141161</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="D33" t="n">
-        <v>337.3135924799097</v>
+        <v>579.9706376176423</v>
       </c>
       <c r="E33" t="n">
-        <v>178.0761374744542</v>
+        <v>420.7331826121868</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>274.1986246390718</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>135.4677992216873</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6780,16 +6782,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>660.701031422288</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>660.701031422288</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X33" t="n">
-        <v>660.701031422288</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y33" t="n">
-        <v>660.701031422288</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="34">
@@ -6889,13 +6891,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
         <v>19.28114311021272</v>
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>495.259035872464</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C35" t="n">
-        <v>495.259035872464</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D35" t="n">
-        <v>495.259035872464</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E35" t="n">
-        <v>495.259035872464</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F35" t="n">
-        <v>495.259035872464</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G35" t="n">
-        <v>475.3318284112885</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>738.7078125165641</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>738.7078125165641</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V35" t="n">
-        <v>495.259035872464</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W35" t="n">
-        <v>495.259035872464</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X35" t="n">
-        <v>495.259035872464</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y35" t="n">
-        <v>495.259035872464</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>327.4530077769195</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C36" t="n">
-        <v>327.4530077769195</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D36" t="n">
-        <v>178.5185981156682</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>770.456616214195</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>770.456616214195</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>535.3045079824524</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>535.3045079824524</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>327.4530077769195</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>327.4530077769195</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="37">
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
         <v>19.28114311021272</v>
@@ -7132,13 +7134,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7193,28 +7195,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>366.1018663125844</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U38" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
         <v>19.28114311021272</v>
@@ -7227,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7259,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>928.2922408909005</v>
+        <v>944.8184440547432</v>
       </c>
       <c r="T39" t="n">
-        <v>726.1056462496665</v>
+        <v>944.8184440547432</v>
       </c>
       <c r="U39" t="n">
-        <v>497.8820279860555</v>
+        <v>944.8184440547432</v>
       </c>
       <c r="V39" t="n">
-        <v>262.7299197543128</v>
+        <v>709.6663358230005</v>
       </c>
       <c r="W39" t="n">
-        <v>19.28114311021272</v>
+        <v>709.6663358230005</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>709.6663358230005</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>501.9060370580465</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7439,22 +7441,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7500,10 +7502,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>795.0736900179952</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>795.0736900179952</v>
       </c>
       <c r="U42" t="n">
-        <v>761.8705608694022</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="V42" t="n">
-        <v>526.7184526376595</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="W42" t="n">
-        <v>526.7184526376595</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="X42" t="n">
-        <v>318.8669524321267</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="Y42" t="n">
-        <v>318.8669524321267</v>
+        <v>566.8500717543842</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7625,19 +7627,19 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7646,7 +7648,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K44" t="n">
         <v>122.2961490211351</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X44" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="Y44" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="X44" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>319.0683498528888</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="C45" t="n">
-        <v>144.6153205717618</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="D45" t="n">
-        <v>144.6153205717618</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E45" t="n">
-        <v>144.6153205717618</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G45" t="n">
         <v>20.03527576299844</v>
@@ -7731,16 +7733,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>65.60123993063803</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M45" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7755,22 +7757,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U45" t="n">
-        <v>487.2836868729568</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V45" t="n">
-        <v>487.2836868729568</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W45" t="n">
-        <v>487.2836868729568</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="X45" t="n">
-        <v>487.2836868729568</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="Y45" t="n">
-        <v>487.2836868729568</v>
+        <v>461.2466632505798</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>923.8270671584188</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C46" t="n">
-        <v>923.8270671584188</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D46" t="n">
-        <v>923.8270671584188</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E46" t="n">
-        <v>923.8270671584188</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F46" t="n">
-        <v>923.8270671584188</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G46" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T46" t="n">
-        <v>923.8270671584188</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U46" t="n">
-        <v>923.8270671584188</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V46" t="n">
-        <v>923.8270671584188</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W46" t="n">
-        <v>923.8270671584188</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X46" t="n">
-        <v>923.8270671584188</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.8270671584188</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
         <v>281.6966398529821</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
         <v>284.7455247652193</v>
@@ -8058,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>192.0669087898239</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>182.6921187090427</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>193.9466510701538</v>
       </c>
       <c r="P3" t="n">
         <v>187.48693642428</v>
@@ -8219,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8775,16 +8777,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9012,19 +9014,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,16 +9725,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9957,10 +9959,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9969,10 +9971,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,13 +10196,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -10428,19 +10430,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10665,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,13 +10679,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,22 +10907,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11148,13 +11150,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O42" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11379,7 +11381,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>185.3423563661624</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
@@ -11391,7 +11393,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23264,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23273,10 +23275,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23303,7 +23305,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>148.0596218681135</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23318,10 +23320,10 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23337,22 +23339,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23385,16 +23387,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>85.56267508295639</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23434,10 +23436,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>175.4015535970057</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23495,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>363.4633956979714</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23513,10 +23515,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>201.1924361087609</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>114.792179629552</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23753,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,31 +23776,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>237.3633207320585</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="18">
@@ -23826,10 +23828,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.8610253924609</v>
+        <v>57.38651637804261</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C20" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24023,19 +24025,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>27.2617907027001</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24069,7 +24071,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>47.79451608452884</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24111,7 +24113,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24209,13 +24211,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24224,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>126.0561017912447</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24266,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>128.71681180081</v>
@@ -24288,7 +24290,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24300,7 +24302,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>154.9421265537755</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24342,13 +24344,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>201.1924361087609</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24382,10 +24384,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>155.4504749272583</v>
+        <v>118.3441281936695</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -24403,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>292.2667739183906</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,7 +24460,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,7 +24530,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>35.80201460480724</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24537,13 +24539,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>34.32864994384879</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24585,7 +24587,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24616,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24683,25 +24685,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G29" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24759,25 +24761,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>118.3383377381526</v>
+        <v>28.10246403878108</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24819,10 +24821,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24847,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24856,13 +24858,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24980,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25005,16 +25007,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>125.2056851359954</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>86.60728753755171</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25041,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25166,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5748021285713</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>120.0869518323295</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,22 +25198,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25233,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25242,19 +25244,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,22 +25283,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>180.1833658951826</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25315,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25433,10 +25435,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25445,19 +25447,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>149.0074258151476</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>328.0572133466886</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,13 +25472,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25518,25 +25520,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>136.2759056302995</v>
+        <v>152.6368467625037</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25603,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25679,19 +25681,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>42.65173140948825</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25755,22 +25757,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>4.38954026612322</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25837,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="44">
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,25 +25909,25 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>114.952062997102</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>5.634389570544755</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>21.73496803270818</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25995,10 +25997,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>37.52545250819722</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26044,7 +26046,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -26062,7 +26064,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>86.16204325169439</v>
@@ -26074,7 +26076,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>188.1178019595862</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>332380.8900077368</v>
+        <v>332380.8900077369</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>332380.8900077367</v>
+        <v>332380.8900077369</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>332380.8900077367</v>
+        <v>332380.8900077369</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>332380.8900077369</v>
+        <v>332380.8900077367</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26316,7 @@
         <v>636307.3716448194</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448196</v>
@@ -26335,7 +26337,7 @@
         <v>257549.0424235651</v>
       </c>
       <c r="J2" t="n">
-        <v>257549.0424235651</v>
+        <v>257549.0424235652</v>
       </c>
       <c r="K2" t="n">
         <v>257549.0424235651</v>
@@ -26347,13 +26349,13 @@
         <v>257549.0424235651</v>
       </c>
       <c r="N2" t="n">
-        <v>257549.0424235651</v>
+        <v>257549.0424235652</v>
       </c>
       <c r="O2" t="n">
         <v>257549.0424235651</v>
       </c>
       <c r="P2" t="n">
-        <v>257549.0424235652</v>
+        <v>257549.0424235651</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26427,13 +26429,13 @@
         <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
         <v>8547.111069342402</v>
@@ -26442,7 +26444,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
         <v>8547.111069342402</v>
@@ -26451,10 +26453,10 @@
         <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
         <v>8547.111069342402</v>
@@ -26522,13 +26524,13 @@
         <v>245731.2196166485</v>
       </c>
       <c r="C6" t="n">
-        <v>239957.1419905882</v>
+        <v>239957.1419905879</v>
       </c>
       <c r="D6" t="n">
         <v>300533.4641772562</v>
       </c>
       <c r="E6" t="n">
-        <v>234348.2625904611</v>
+        <v>234348.262590461</v>
       </c>
       <c r="F6" t="n">
         <v>234348.262590461</v>
@@ -26543,10 +26545,10 @@
         <v>234348.262590461</v>
       </c>
       <c r="J6" t="n">
-        <v>220347.0304501817</v>
+        <v>220347.0304501818</v>
       </c>
       <c r="K6" t="n">
-        <v>186091.3096568285</v>
+        <v>186091.3096568284</v>
       </c>
       <c r="L6" t="n">
         <v>234348.262590461</v>
@@ -26555,13 +26557,13 @@
         <v>234348.2625904611</v>
       </c>
       <c r="N6" t="n">
-        <v>234348.262590461</v>
+        <v>234348.2625904611</v>
       </c>
       <c r="O6" t="n">
         <v>234348.262590461</v>
       </c>
       <c r="P6" t="n">
-        <v>234348.2625904611</v>
+        <v>234348.262590461</v>
       </c>
     </row>
   </sheetData>
@@ -27424,13 +27426,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>96.35658893119992</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>196.0143066457406</v>
       </c>
       <c r="T2" t="n">
-        <v>210.0900866236266</v>
+        <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
         <v>197.8331238978867</v>
@@ -27470,10 +27472,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>83.83098815326088</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>58.72291522654671</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27503,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.77058992693726</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>179.2880581394755</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>159.3857409777716</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27552,10 +27554,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>161.0561955029604</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>101.9379459173085</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>39.84665110672302</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>32.64951424174463</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>176.1224143726903</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27616,16 +27618,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>197.1062779535693</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>221.8426869680169</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27658,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27676,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>128.71681180081</v>
@@ -27695,28 +27697,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>121.2443095168948</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27761,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>114.5036824862305</v>
       </c>
     </row>
     <row r="7">
@@ -27789,7 +27791,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>54.03113748306089</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27798,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183325</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>231.8333861825618</v>
+        <v>321.2963761483181</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,10 +27873,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27932,19 +27934,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>47.65743600471349</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27953,7 +27955,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27995,7 +27997,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>196.5506615794105</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -34699,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="N2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="M2" t="n">
-        <v>51.35040662570936</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>53.51252900994975</v>
@@ -34778,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>51.35040662570936</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>53.51252900994975</v>
@@ -34948,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N9" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35419,7 +35421,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35495,16 +35497,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35732,19 +35734,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N15" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36677,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36689,10 +36691,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37148,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37312,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37385,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,13 +37399,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37868,13 +37870,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O42" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38099,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>46.78797658628819</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
@@ -38111,7 +38113,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2007932.788399961</v>
+        <v>1939081.491958524</v>
       </c>
     </row>
     <row r="7">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.015063725959897</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,25 +703,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
-        <v>13.00576294050472</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>53.51252900994975</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="X3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.170977004479181</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>168.1666138174382</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>69.11705026402626</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>34.66067414728066</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>91.17901329107384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="Y7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,25 +1138,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>198.7050131246913</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>85.57966959339331</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>21.0507685937734</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>152.8155841186201</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1414,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>1.809496073036132</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1466,13 +1466,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>89.70401384132538</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.809496073036132</v>
+        <v>124.9488863009592</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1685,31 +1685,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>90.03898803528359</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1940,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,13 +1979,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>194.308466782877</v>
+        <v>6.817411324556144</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>202.2946864288972</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2162,25 +2162,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>120.1832748619387</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>173.6293315326434</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2362,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>23.81301614990497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,25 +2402,25 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.44050690301</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,16 +2447,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>16.74104455006236</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2490,16 +2490,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>37.10634673358876</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2599,25 +2599,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>24.00235464595601</v>
       </c>
       <c r="E27" t="n">
-        <v>121.8430658505937</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -2693,10 +2693,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2803,19 +2803,19 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>33.80371536444976</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2873,25 +2873,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>124.8499225242154</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>109.2410531244296</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2921,7 +2921,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2930,13 +2930,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2970,13 +2970,13 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,31 +3107,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>25.62815669894475</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>77.28024684800309</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3274,22 +3274,22 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,25 +3313,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,25 +3347,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3398,16 +3398,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3429,70 +3429,70 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>19.04632434133412</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3644,10 +3644,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>190.9141499935689</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,76 +3739,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>200.3360962888296</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>41.69619877670928</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>167.2936308377146</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,16 +4061,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>141.810675994094</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>130.4655268502615</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.75380293843134</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="C2" t="n">
-        <v>38.75380293843134</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="D2" t="n">
-        <v>38.75380293843134</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="E2" t="n">
-        <v>38.75380293843134</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="F2" t="n">
-        <v>31.80830218922787</v>
+        <v>34.85382110433888</v>
       </c>
       <c r="G2" t="n">
-        <v>16.35099156787933</v>
+        <v>19.39651048299034</v>
       </c>
       <c r="H2" t="n">
-        <v>16.35099156787933</v>
+        <v>19.39651048299034</v>
       </c>
       <c r="I2" t="n">
         <v>16.35099156787933</v>
@@ -4333,49 +4333,49 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>4.28100232079598</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>55.11790488024824</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="N2" t="n">
-        <v>108.0953086000985</v>
+        <v>214.050116039799</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>200.9129817564609</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>146.859922150451</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="U2" t="n">
-        <v>92.8068625444412</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="V2" t="n">
-        <v>38.75380293843134</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="W2" t="n">
-        <v>38.75380293843134</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="X2" t="n">
-        <v>38.75380293843134</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.75380293843134</v>
+        <v>41.79932185354235</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.035134973581694</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="C3" t="n">
-        <v>5.035134973581694</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="D3" t="n">
-        <v>5.035134973581694</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="E3" t="n">
-        <v>5.035134973581694</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
@@ -4415,19 +4415,19 @@
         <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
-        <v>110.2358097604965</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
         <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
@@ -4439,22 +4439,22 @@
         <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="U3" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="V3" t="n">
         <v>159.9970564337892</v>
       </c>
-      <c r="U3" t="n">
-        <v>159.9970564337892</v>
-      </c>
-      <c r="V3" t="n">
-        <v>105.9439968277793</v>
-      </c>
       <c r="W3" t="n">
-        <v>105.9439968277793</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="X3" t="n">
-        <v>59.08819457959154</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="Y3" t="n">
-        <v>59.08819457959154</v>
+        <v>112.3871215328157</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.82849811456629</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="C4" t="n">
-        <v>80.82849811456629</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="D4" t="n">
-        <v>80.82849811456629</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="E4" t="n">
-        <v>80.82849811456629</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="F4" t="n">
-        <v>80.82849811456629</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="G4" t="n">
-        <v>80.82849811456629</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H4" t="n">
-        <v>80.82849811456629</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="I4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4506,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>80.82849811456629</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>80.82849811456629</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>80.82849811456629</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>80.82849811456629</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>80.82849811456629</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>80.82849811456629</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="X4" t="n">
-        <v>80.82849811456629</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Y4" t="n">
-        <v>80.82849811456629</v>
+        <v>112.3871215328157</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>467.067986854209</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="C5" t="n">
-        <v>297.2027203719481</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="D5" t="n">
-        <v>53.75394372784808</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="E5" t="n">
-        <v>53.75394372784808</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>521.6360070197613</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="X5" t="n">
-        <v>710.516763498309</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="Y5" t="n">
-        <v>467.067986854209</v>
+        <v>278.1872303756613</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>602.5722756181267</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>428.1192463369997</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,46 +4652,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>929.0463735436861</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>770.7876126381948</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4743,31 +4743,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>333.7844730889342</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C8" t="n">
-        <v>333.7844730889342</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D8" t="n">
-        <v>333.7844730889342</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="E8" t="n">
-        <v>333.7844730889342</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="F8" t="n">
-        <v>247.340362388537</v>
+        <v>502.8591282797204</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8830517671884</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>577.2332497330343</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X8" t="n">
-        <v>577.2332497330343</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>333.7844730889342</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>689.4702815141908</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C9" t="n">
-        <v>689.4702815141908</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4892,43 +4892,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>689.4702815141908</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>475.3318284112885</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C11" t="n">
-        <v>475.3318284112885</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D11" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U11" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V11" t="n">
-        <v>718.7806050553886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W11" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X11" t="n">
-        <v>475.3318284112885</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y11" t="n">
-        <v>475.3318284112885</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>862.8876260635219</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>338.9217126616785</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>200.190887244294</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W12" t="n">
-        <v>862.8876260635219</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X12" t="n">
-        <v>862.8876260635219</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y12" t="n">
-        <v>862.8876260635219</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="13">
@@ -5178,28 +5178,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C14" t="n">
-        <v>962.2293816994886</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D14" t="n">
-        <v>962.2293816994886</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E14" t="n">
-        <v>962.2293816994886</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F14" t="n">
-        <v>718.7806050553886</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H14" t="n">
         <v>231.8830517671884</v>
@@ -5302,28 +5302,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>359.7667000214245</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>359.7667000214245</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>359.7667000214245</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>200.529245015969</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>200.529245015969</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>200.529245015969</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
         <v>781.4136778972854</v>
@@ -5390,19 +5390,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>527.9820370414925</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5460,28 +5460,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5551,16 +5551,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>223.7040404982626</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C18" t="n">
-        <v>223.7040404982626</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D18" t="n">
-        <v>223.7040404982626</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>417.4543050195419</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>627.7355178317791</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W18" t="n">
-        <v>431.4643392632165</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="X18" t="n">
-        <v>431.4643392632165</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.7040404982626</v>
+        <v>521.1869644168632</v>
       </c>
     </row>
     <row r="19">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E20" t="n">
+        <v>467.067986854209</v>
+      </c>
+      <c r="F20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>964.0571555106362</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C21" t="n">
-        <v>789.6041262295092</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D21" t="n">
-        <v>668.2068788942177</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5840,16 +5840,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>615.2566477970188</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>387.0330295334078</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>387.0330295334078</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>387.0330295334078</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>387.0330295334078</v>
       </c>
       <c r="Y21" t="n">
-        <v>964.0571555106362</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>475.3318284112885</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>929.9119884758385</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>475.3318284112885</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>281.5846883638847</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C24" t="n">
-        <v>281.5846883638847</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="D24" t="n">
-        <v>132.6502787026334</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="E24" t="n">
-        <v>132.6502787026334</v>
+        <v>429.2157613146156</v>
       </c>
       <c r="F24" t="n">
-        <v>132.6502787026334</v>
+        <v>282.6812033415006</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>143.9503779241161</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58124233169541</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6080,13 +6080,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>947.1470095004722</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>744.9604148592382</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>516.7367965956273</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V24" t="n">
-        <v>281.5846883638847</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W24" t="n">
-        <v>281.5846883638847</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X24" t="n">
-        <v>281.5846883638847</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y24" t="n">
-        <v>281.5846883638847</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
         <v>19.28114311021272</v>
@@ -6165,34 +6165,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
         <v>262.7299197543128</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T26" t="n">
-        <v>728.6161971483371</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U26" t="n">
-        <v>728.6161971483371</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>142.3549469997013</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="C27" t="n">
-        <v>142.3549469997013</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="D27" t="n">
-        <v>142.3549469997013</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6311,46 +6311,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N27" t="n">
-        <v>496.4894350879777</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O27" t="n">
-        <v>735.0935810768601</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P27" t="n">
-        <v>917.7370586902109</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V27" t="n">
-        <v>761.8705608694022</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W27" t="n">
-        <v>518.4217842253022</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X27" t="n">
-        <v>310.5702840197694</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="Y27" t="n">
-        <v>310.5702840197694</v>
+        <v>44.28007843568128</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C29" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D29" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E29" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F29" t="n">
-        <v>730.8505943024719</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G29" t="n">
-        <v>487.4018176583718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H29" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6490,25 +6490,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>655.0361258579891</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="C30" t="n">
-        <v>480.5830965768621</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D30" t="n">
-        <v>480.5830965768621</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E30" t="n">
-        <v>480.5830965768621</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>334.048538603747</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6554,10 +6554,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6569,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W30" t="n">
-        <v>862.8876260635219</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X30" t="n">
-        <v>655.0361258579891</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="Y30" t="n">
-        <v>655.0361258579891</v>
+        <v>454.3181732824481</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>262.7299197543128</v>
@@ -6742,10 +6742,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>728.9050472788936</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C33" t="n">
-        <v>728.9050472788936</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D33" t="n">
-        <v>579.9706376176423</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E33" t="n">
-        <v>420.7331826121868</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>274.1986246390718</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>135.4677992216873</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>784.8267706614986</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>582.6401760202647</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>582.6401760202647</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>347.488067788522</v>
       </c>
       <c r="W33" t="n">
-        <v>728.9050472788936</v>
+        <v>347.488067788522</v>
       </c>
       <c r="X33" t="n">
-        <v>728.9050472788936</v>
+        <v>347.488067788522</v>
       </c>
       <c r="Y33" t="n">
-        <v>728.9050472788936</v>
+        <v>347.488067788522</v>
       </c>
     </row>
     <row r="34">
@@ -6891,10 +6891,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>122.6530896684844</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C35" t="n">
-        <v>122.6530896684844</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D35" t="n">
-        <v>122.6530896684844</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E35" t="n">
-        <v>122.6530896684844</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F35" t="n">
-        <v>122.6530896684844</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="G35" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T35" t="n">
-        <v>366.1018663125844</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U35" t="n">
-        <v>122.6530896684844</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V35" t="n">
-        <v>122.6530896684844</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W35" t="n">
-        <v>122.6530896684844</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X35" t="n">
-        <v>122.6530896684844</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y35" t="n">
-        <v>122.6530896684844</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>964.0571555106362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C36" t="n">
-        <v>817.1412885554689</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D36" t="n">
-        <v>668.2068788942177</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E36" t="n">
-        <v>508.9694238887622</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7019,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="37">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
         <v>19.28114311021272</v>
@@ -7140,7 +7140,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>40.6788758079141</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>501.9060370580465</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7256,10 +7256,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
         <v>234.810827406191</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>944.8184440547432</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>944.8184440547432</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>944.8184440547432</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>709.6663358230005</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W39" t="n">
-        <v>709.6663358230005</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>709.6663358230005</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>501.9060370580465</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
         <v>19.28114311021272</v>
@@ -7365,19 +7365,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C41" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D41" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7456,7 +7456,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>566.8500717543842</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C42" t="n">
-        <v>566.8500717543842</v>
+        <v>580.3071014395105</v>
       </c>
       <c r="D42" t="n">
-        <v>417.9156620931329</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="E42" t="n">
-        <v>417.9156620931329</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F42" t="n">
-        <v>271.3811041200179</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G42" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7499,7 +7499,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
         <v>542.809531908403</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>795.0736900179952</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>795.0736900179952</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>566.8500717543842</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>566.8500717543842</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>566.8500717543842</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X42" t="n">
-        <v>566.8500717543842</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y42" t="n">
-        <v>566.8500717543842</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="43">
@@ -7611,7 +7611,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
         <v>19.28114311021272</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7648,7 +7648,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
         <v>122.2961490211351</v>
@@ -7681,19 +7681,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>461.2466632505798</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>461.2466632505798</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>318.0035561858384</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
         <v>20.03527576299844</v>
@@ -7733,46 +7733,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>248.2447175439888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>689.4702815141908</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="U45" t="n">
-        <v>461.2466632505798</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V45" t="n">
-        <v>461.2466632505798</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W45" t="n">
-        <v>461.2466632505798</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X45" t="n">
-        <v>461.2466632505798</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y45" t="n">
-        <v>461.2466632505798</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
         <v>19.28114311021272</v>
@@ -7824,34 +7824,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>281.6966398529821</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
         <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>193.9466510701538</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8300,22 +8300,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>371.3463732493024</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9020,7 +9020,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9260,10 +9260,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,7 +9728,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,10 +9959,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>186.7697506723097</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,13 +10202,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2485028631349</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10679,13 +10679,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>359.8407857361378</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11147,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N42" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11381,7 +11381,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>369.8307175917693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
@@ -11393,10 +11393,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>302.2574731329353</v>
       </c>
       <c r="E11" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>148.0596218681135</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23317,13 +23317,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23339,13 +23339,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23354,13 +23354,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>22.53143039517109</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23396,10 +23396,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>363.4633956979714</v>
+        <v>240.3240054700484</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23573,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>22.19645620121287</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23639,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23734,13 +23734,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23749,7 +23749,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23791,16 +23791,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23828,13 +23828,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23867,13 +23867,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>57.38651637804261</v>
+        <v>244.8775718363635</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>180.4391552345834</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24050,25 +24050,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>27.2617907027001</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,13 +24098,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>26.53539716217816</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24116,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24208,25 +24208,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24250,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>126.0561017912447</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24290,25 +24290,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>78.95612594840507</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,16 +24335,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>154.9421265537755</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>118.3441281936695</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -24405,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
@@ -24445,13 +24445,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>270.8624047773015</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24487,25 +24487,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>107.53913272771</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>123.4427109186827</v>
       </c>
       <c r="E27" t="n">
-        <v>35.80201460480724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24581,10 +24581,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24691,19 +24691,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>315.4372533529632</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24761,25 +24761,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>47.8585764641003</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>28.10246403878108</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24818,13 +24818,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24858,13 +24858,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,31 +24995,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>86.60728753755171</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>94.40292425583473</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25131,13 +25131,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25162,22 +25162,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>181.0138317948241</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>120.0869518323295</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25235,25 +25235,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>110.4085382461033</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25286,16 +25286,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="38">
@@ -25405,10 +25405,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25441,22 +25441,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>328.0572133466886</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25472,13 +25472,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>152.6368467625037</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25532,10 +25532,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>60.78083316735075</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25605,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>142.397655977241</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>206.5399494528818</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>131.0123002116065</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,13 +25757,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>4.38954026612322</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25851,10 +25851,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25921,10 +25921,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25949,16 +25949,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>5.634389570544755</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>150.8536247525263</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>37.52545250819722</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26064,7 +26064,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
         <v>86.16204325169439</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>332380.8900077367</v>
+        <v>332380.8900077369</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>332380.8900077367</v>
+        <v>332380.8900077369</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>332380.8900077367</v>
+        <v>332380.8900077369</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>332380.8900077369</v>
+        <v>332380.8900077368</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>332380.8900077369</v>
+        <v>332380.8900077368</v>
       </c>
     </row>
     <row r="13">
@@ -26316,7 +26316,7 @@
         <v>636307.3716448194</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448196</v>
@@ -26337,13 +26337,13 @@
         <v>257549.0424235651</v>
       </c>
       <c r="J2" t="n">
-        <v>257549.0424235652</v>
+        <v>257549.0424235651</v>
       </c>
       <c r="K2" t="n">
         <v>257549.0424235651</v>
       </c>
       <c r="L2" t="n">
-        <v>257549.0424235651</v>
+        <v>257549.0424235652</v>
       </c>
       <c r="M2" t="n">
         <v>257549.0424235651</v>
@@ -26352,7 +26352,7 @@
         <v>257549.0424235652</v>
       </c>
       <c r="O2" t="n">
-        <v>257549.0424235651</v>
+        <v>257549.042423565</v>
       </c>
       <c r="P2" t="n">
         <v>257549.0424235651</v>
@@ -26524,46 +26524,46 @@
         <v>245731.2196166485</v>
       </c>
       <c r="C6" t="n">
-        <v>239957.1419905879</v>
+        <v>239957.141990588</v>
       </c>
       <c r="D6" t="n">
-        <v>300533.4641772562</v>
+        <v>300533.4641772561</v>
       </c>
       <c r="E6" t="n">
-        <v>234348.262590461</v>
+        <v>222130.2519704206</v>
       </c>
       <c r="F6" t="n">
-        <v>234348.262590461</v>
+        <v>222130.2519704206</v>
       </c>
       <c r="G6" t="n">
-        <v>234348.262590461</v>
+        <v>222130.2519704206</v>
       </c>
       <c r="H6" t="n">
-        <v>234348.2625904611</v>
+        <v>222130.2519704205</v>
       </c>
       <c r="I6" t="n">
-        <v>234348.262590461</v>
+        <v>222130.2519704206</v>
       </c>
       <c r="J6" t="n">
-        <v>220347.0304501818</v>
+        <v>208129.0198301413</v>
       </c>
       <c r="K6" t="n">
-        <v>186091.3096568284</v>
+        <v>173873.2990367879</v>
       </c>
       <c r="L6" t="n">
-        <v>234348.262590461</v>
+        <v>222130.2519704206</v>
       </c>
       <c r="M6" t="n">
-        <v>234348.2625904611</v>
+        <v>222130.2519704206</v>
       </c>
       <c r="N6" t="n">
-        <v>234348.2625904611</v>
+        <v>222130.2519704206</v>
       </c>
       <c r="O6" t="n">
-        <v>234348.262590461</v>
+        <v>222130.2519704205</v>
       </c>
       <c r="P6" t="n">
-        <v>234348.262590461</v>
+        <v>222130.2519704206</v>
       </c>
     </row>
   </sheetData>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>207.460825844446</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,25 +27423,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>196.0143066457406</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>169.5833205541816</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>197.8331238978867</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>274.2397294601852</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>295.7284397074633</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,10 +27466,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>104.1325514454512</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>91.55668338343412</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27481,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>146.6521996848718</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27520,10 +27520,10 @@
         <v>179.2880581394755</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>204.5611476089558</v>
       </c>
       <c r="X3" t="n">
-        <v>159.3857409777716</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27551,19 +27551,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>114.478450348509</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>101.9379459173085</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.64951424174463</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>176.1224143726903</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>192.4227437866263</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>197.1062779535693</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>153.9787993001051</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,31 +27694,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>137.0224969565572</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>114.5036824862305</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27815,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>178.6847310553635</v>
       </c>
       <c r="Y7" t="n">
-        <v>88.11912650183325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,25 +27858,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>155.9780284959916</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>321.2963761483181</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,25 +27931,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>126.3942969708654</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4.829496336780807</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>131.5971077388633</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="O2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
+        <v>51.35040662570936</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="O3" t="n">
-        <v>51.35040662570936</v>
-      </c>
-      <c r="P3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>240.0046611659691</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,7 +35187,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35260,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,10 +35418,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35740,7 +35740,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35980,10 +35980,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
+        <v>43.28534947792182</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O21" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36694,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>46.78797658628819</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,13 +36922,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798016</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37399,13 +37399,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>217.7067518141195</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37867,10 +37867,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N42" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N42" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38101,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
@@ -38113,10 +38113,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
